--- a/test_files_v1.3/f_fail_seq_file_participant_sample_issues-v1.3.xlsx
+++ b/test_files_v1.3/f_fail_seq_file_participant_sample_issues-v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/CancerDataServices-SubmissionValidationR/test_files_v1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF1606-3A45-984A-B0ED-1EED0DF074C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C39EA-D39B-9444-9150-ED7F6F94EA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="1" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
   </bookViews>
@@ -30988,8 +30988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8C985-DF33-3E49-A37A-52651F205350}">
   <dimension ref="A1:CR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -82842,15 +82842,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DDF4BDEBC8CD0F40B25EB9E95A8CB124" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="44613b05c98abfc580f3f2dd84a493cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e90b173b-37e9-4a24-8d1d-2ce602dda436" xmlns:ns3="c550909f-45ce-45a3-96f7-2c03a0037d02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c1573834669f597b122094052f81c0b" ns2:_="" ns3:_="">
     <xsd:import namespace="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
@@ -83041,6 +83032,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
   <ds:schemaRefs>
@@ -83059,14 +83059,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF00C79C-B0DC-456D-AA8D-963D9CA25A88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -83083,4 +83075,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>